--- a/util/AI-RiskAssessmentTool_E.xlsx
+++ b/util/AI-RiskAssessmentTool_E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\securityguideline\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C37B3-C0E2-435B-9A81-F9C178CCFE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB67FC-3920-4E44-9A95-3C76B7D527D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="60" windowWidth="26355" windowHeight="14550" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
+    <workbookView xWindow="540" yWindow="1950" windowWidth="28260" windowHeight="10920" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="I. Specification of AI system" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="446">
   <si>
     <t>1-1A</t>
     <phoneticPr fontId="1"/>
@@ -2230,6 +2230,10 @@
   </si>
   <si>
     <t>The PA can obtain 1000 or more data points in a similar dataset.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copyright 2022-2025 Fujitsu Limited</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3200,507 +3204,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="213">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="163">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4636,102 +4140,107 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4918,107 +4427,102 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -25627,9 +25131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -25667,7 +25171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -25773,7 +25277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25915,7 +25419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -25923,7 +25427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D867B39-5CFD-4744-A275-60A730B12AF4}">
-  <dimension ref="B2:D80"/>
+  <dimension ref="B1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
   </sheetViews>
@@ -25936,12 +25440,17 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C1" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
     </row>
     <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.4">
@@ -26162,6 +25671,9 @@
       <c r="I1" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="str">
@@ -27465,7 +26977,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD9C5DD-27D5-43CC-B03F-1770E07F8AF5}">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -27484,6 +26996,11 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>90</v>
@@ -28159,7 +27676,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79664C2F-71DD-4439-8626-8322FEA45395}">
-  <dimension ref="A2:G62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -28175,6 +27692,11 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="46" t="s">
         <v>90</v>
@@ -29007,7 +28529,11 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K1" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
     <row r="2" spans="2:39" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="83" t="s">
         <v>229</v>
@@ -31037,557 +30563,557 @@
     <mergeCell ref="H31:H32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="162" priority="22">
+      <formula>$C$4="Difficult"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="27">
+      <formula>$C$4="Applicable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="160" priority="21">
+      <formula>$D$4="Difficult"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="24">
+      <formula>$D$4="Applicable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="158" priority="20">
+      <formula>$E$4="Applicable"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="25">
+      <formula>$E$4="Difficult"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="156" priority="23">
+      <formula>$F$4="Difficult"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="19">
+      <formula>$F$4="Applicable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="154" priority="18">
+      <formula>$G$4="Difficult"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="26">
+      <formula>$G$4="Applicable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O32">
+    <cfRule type="cellIs" dxfId="152" priority="88" operator="equal">
+      <formula>"Applicable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="89" operator="equal">
+      <formula>"Difficult"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="212" priority="467">
+    <cfRule type="expression" dxfId="150" priority="467">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="211" priority="469">
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="149" priority="510">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="expression" dxfId="148" priority="527">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="147" priority="532">
+      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="expression" dxfId="146" priority="534">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="expression" dxfId="145" priority="542">
+      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="expression" dxfId="144" priority="49">
+      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="expression" dxfId="143" priority="546">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="expression" dxfId="142" priority="550">
+      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="expression" dxfId="141" priority="84">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="expression" dxfId="140" priority="66">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="expression" dxfId="139" priority="523">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="expression" dxfId="138" priority="515">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="expression" dxfId="137" priority="44">
+      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="expression" dxfId="136" priority="327">
+      <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="expression" dxfId="135" priority="513">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="expression" dxfId="134" priority="537">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="expression" dxfId="133" priority="326">
+      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="expression" dxfId="132" priority="514">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="expression" dxfId="131" priority="58">
+      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="expression" dxfId="130" priority="83">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="expression" dxfId="129" priority="528">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="expression" dxfId="128" priority="533">
+      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="expression" dxfId="127" priority="535">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="expression" dxfId="126" priority="469">
+      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="expression" dxfId="125" priority="511">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="expression" dxfId="210" priority="475">
+    <cfRule type="expression" dxfId="124" priority="475">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="expression" dxfId="209" priority="478">
+    <cfRule type="expression" dxfId="123" priority="478">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="208" priority="327">
+  <conditionalFormatting sqref="U18">
+    <cfRule type="expression" dxfId="122" priority="508">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="expression" dxfId="121" priority="509">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="expression" dxfId="120" priority="512">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="expression" dxfId="119" priority="516">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="expression" dxfId="118" priority="48">
+      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="expression" dxfId="117" priority="547">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="expression" dxfId="116" priority="551">
+      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25">
+    <cfRule type="expression" dxfId="115" priority="2">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26">
+    <cfRule type="expression" dxfId="114" priority="57">
+      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27">
+    <cfRule type="expression" dxfId="113" priority="543">
+      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29">
+    <cfRule type="expression" dxfId="112" priority="43">
+      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="expression" dxfId="111" priority="112">
+      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="expression" dxfId="110" priority="520">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="expression" dxfId="109" priority="522">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="expression" dxfId="108" priority="524">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="expression" dxfId="107" priority="539">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26">
+    <cfRule type="expression" dxfId="106" priority="56">
+      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27">
+    <cfRule type="expression" dxfId="105" priority="544">
+      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
+    <cfRule type="expression" dxfId="104" priority="47">
+      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29">
+    <cfRule type="expression" dxfId="103" priority="42">
+      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30">
+    <cfRule type="expression" dxfId="102" priority="548">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31">
+    <cfRule type="expression" dxfId="101" priority="552">
+      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
+    <cfRule type="expression" dxfId="100" priority="540">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="expression" dxfId="99" priority="82">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="expression" dxfId="98" priority="118">
+      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="expression" dxfId="97" priority="517">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="expression" dxfId="96" priority="3">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26">
+    <cfRule type="expression" dxfId="95" priority="55">
+      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27">
+    <cfRule type="expression" dxfId="94" priority="545">
+      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="expression" dxfId="93" priority="46">
+      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="expression" dxfId="92" priority="41">
+      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y30">
+    <cfRule type="expression" dxfId="91" priority="549">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y31">
+    <cfRule type="expression" dxfId="90" priority="553">
+      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
+    <cfRule type="expression" dxfId="89" priority="529">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18">
+    <cfRule type="expression" dxfId="88" priority="521">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="expression" dxfId="87" priority="526">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25">
+    <cfRule type="expression" dxfId="86" priority="541">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17">
+    <cfRule type="expression" dxfId="85" priority="111">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="207" priority="326">
-      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+  <conditionalFormatting sqref="AB32">
+    <cfRule type="expression" dxfId="84" priority="28">
+      <formula>(AB32="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28">
+    <cfRule type="expression" dxfId="83" priority="45">
+      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31">
+    <cfRule type="expression" dxfId="82" priority="554">
+      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="expression" dxfId="81" priority="116">
+      <formula>(AD13="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="expression" dxfId="80" priority="530">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",#REF!="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="expression" dxfId="79" priority="556">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="expression" dxfId="78" priority="555">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="expression" dxfId="77" priority="81">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="expression" dxfId="76" priority="531">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="expression" dxfId="75" priority="536">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12">
-    <cfRule type="expression" dxfId="206" priority="119">
+    <cfRule type="expression" dxfId="74" priority="119">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="expression" dxfId="205" priority="118">
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="expression" dxfId="73" priority="102">
+      <formula>(AG21="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="expression" dxfId="72" priority="525">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="expression" dxfId="71" priority="80">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="expression" dxfId="70" priority="117">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="expression" dxfId="204" priority="117">
-      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="expression" dxfId="69" priority="518">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD13">
-    <cfRule type="expression" dxfId="203" priority="116">
-      <formula>(AD13="TRUE")</formula>
+  <conditionalFormatting sqref="AI8">
+    <cfRule type="expression" dxfId="68" priority="10">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W16">
-    <cfRule type="expression" dxfId="202" priority="112">
-      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+  <conditionalFormatting sqref="AI18">
+    <cfRule type="expression" dxfId="67" priority="14">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="201" priority="111">
-      <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
+  <conditionalFormatting sqref="AI23">
+    <cfRule type="expression" dxfId="66" priority="11">
+      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI30">
+    <cfRule type="expression" dxfId="65" priority="35">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AI30="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI31">
+    <cfRule type="expression" dxfId="64" priority="1">
+      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19">
-    <cfRule type="expression" dxfId="200" priority="106">
+    <cfRule type="expression" dxfId="63" priority="106">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AJ19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="expression" dxfId="199" priority="103">
+    <cfRule type="expression" dxfId="62" priority="103">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AJ20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="expression" dxfId="198" priority="102">
-      <formula>(AG21="TRUE")</formula>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="expression" dxfId="61" priority="7">
+      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O32">
-    <cfRule type="cellIs" dxfId="197" priority="88" operator="equal">
-      <formula>"Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="89" operator="equal">
-      <formula>"Difficult"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="195" priority="84">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="194" priority="83">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="expression" dxfId="193" priority="82">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="expression" dxfId="192" priority="81">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="expression" dxfId="191" priority="80">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="expression" dxfId="60" priority="5">
+      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="190" priority="71">
+    <cfRule type="expression" dxfId="59" priority="71">
       <formula>AND(Q9="TRUE",U9="TRUE",AK9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="expression" dxfId="189" priority="67">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AL10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="188" priority="66">
-      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="expression" dxfId="187" priority="58">
-      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="186" priority="57">
-      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W26">
-    <cfRule type="expression" dxfId="185" priority="56">
-      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26">
-    <cfRule type="expression" dxfId="184" priority="55">
-      <formula>AND(T26="TRUE",V26="TRUE",OR(W26="TRUE",Y26="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="expression" dxfId="183" priority="50">
-      <formula>AND(Q27="TRUE",V27="TRUE",AK27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="182" priority="49">
-      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
-    <cfRule type="expression" dxfId="181" priority="48">
-      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
-    <cfRule type="expression" dxfId="180" priority="47">
-      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
-    <cfRule type="expression" dxfId="179" priority="46">
-      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC28">
-    <cfRule type="expression" dxfId="178" priority="45">
-      <formula>AND(Q28="TRUE",U28="TRUE",AC28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="expression" dxfId="177" priority="44">
-      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="expression" dxfId="176" priority="43">
-      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
-    <cfRule type="expression" dxfId="175" priority="42">
-      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="174" priority="41">
-      <formula>AND(R29="TRUE",V29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30">
-    <cfRule type="expression" dxfId="173" priority="35">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AI30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="172" priority="28">
-      <formula>(AB32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="171" priority="22">
-      <formula>$C$4="Difficult"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="27">
-      <formula>$C$4="Applicable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="169" priority="21">
-      <formula>$D$4="Difficult"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="24">
-      <formula>$D$4="Applicable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="167" priority="20">
-      <formula>$E$4="Applicable"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="25">
-      <formula>$E$4="Difficult"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="165" priority="19">
-      <formula>$F$4="Applicable"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="23">
-      <formula>$F$4="Difficult"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="163" priority="18">
-      <formula>$G$4="Difficult"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="26">
-      <formula>$G$4="Applicable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="expression" dxfId="161" priority="15">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
-    <cfRule type="expression" dxfId="160" priority="14">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="expression" dxfId="58" priority="519">
+      <formula>AND(AG14="TRUE",AK14="TRUE",OR(AM14="TRUE",AS14="TRUE"),AW14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19">
-    <cfRule type="expression" dxfId="159" priority="13">
+    <cfRule type="expression" dxfId="57" priority="13">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK20">
-    <cfRule type="expression" dxfId="158" priority="12">
+    <cfRule type="expression" dxfId="56" priority="12">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23">
-    <cfRule type="expression" dxfId="157" priority="11">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI8">
-    <cfRule type="expression" dxfId="156" priority="10">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="expression" dxfId="55" priority="50">
+      <formula>AND(Q27="TRUE",V27="TRUE",AK27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL9">
-    <cfRule type="expression" dxfId="155" priority="9">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="expression" dxfId="154" priority="8">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="expression" dxfId="53" priority="67">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AL10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="expression" dxfId="153" priority="7">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="expression" dxfId="52" priority="15">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL27">
-    <cfRule type="expression" dxfId="152" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="expression" dxfId="151" priority="5">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18">
-    <cfRule type="expression" dxfId="150" priority="508">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19">
-    <cfRule type="expression" dxfId="149" priority="509">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="148" priority="510">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
-    <cfRule type="expression" dxfId="147" priority="511">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="146" priority="512">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="145" priority="513">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="expression" dxfId="144" priority="514">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="expression" dxfId="143" priority="515">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="expression" dxfId="142" priority="516">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
-    <cfRule type="expression" dxfId="141" priority="517">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="expression" dxfId="140" priority="518">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="expression" dxfId="139" priority="519">
-      <formula>AND(AG14="TRUE",AK14="TRUE",OR(AM14="TRUE",AS14="TRUE"),AW14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
-    <cfRule type="expression" dxfId="138" priority="520">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z18">
-    <cfRule type="expression" dxfId="137" priority="521">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
-    <cfRule type="expression" dxfId="136" priority="522">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="expression" dxfId="135" priority="523">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
-    <cfRule type="expression" dxfId="134" priority="524">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="133" priority="525">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23">
-    <cfRule type="expression" dxfId="132" priority="526">
-      <formula>AND(OR(AND(R23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="131" priority="527">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8">
-    <cfRule type="expression" dxfId="130" priority="528">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8">
-    <cfRule type="expression" dxfId="129" priority="529">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="expression" dxfId="128" priority="530">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",#REF!="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="expression" dxfId="127" priority="531">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="126" priority="532">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="125" priority="533">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="124" priority="534">
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="123" priority="535">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="expression" dxfId="122" priority="536">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="121" priority="537">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
-    <cfRule type="expression" dxfId="120" priority="539">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
-    <cfRule type="expression" dxfId="119" priority="540">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="118" priority="541">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="117" priority="542">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="116" priority="543">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
-    <cfRule type="expression" dxfId="115" priority="544">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="expression" dxfId="114" priority="545">
-      <formula>AND(Q27="TRUE",V27="TRUE",AL27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="113" priority="546">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
-    <cfRule type="expression" dxfId="112" priority="547">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
-    <cfRule type="expression" dxfId="111" priority="548">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y30">
-    <cfRule type="expression" dxfId="110" priority="549">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="109" priority="550">
-      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U31">
-    <cfRule type="expression" dxfId="108" priority="551">
-      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
-    <cfRule type="expression" dxfId="107" priority="552">
-      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
-    <cfRule type="expression" dxfId="106" priority="553">
-      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
-    <cfRule type="expression" dxfId="105" priority="554">
-      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="expression" dxfId="104" priority="555">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="expression" dxfId="103" priority="556">
-      <formula>AND(Q30="TRUE",U30="TRUE",OR(W30="TRUE",Y30="TRUE"),AE30="TRUE",AJ30="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
-    <cfRule type="expression" dxfId="102" priority="3">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="101" priority="2">
-      <formula>AND(S25="TRUE",V25="TRUE",(OR(W25="TRUE",Y25="TRUE")),(OR(X25="TRUE",AA25="TRUE",AJ25="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI31">
-    <cfRule type="expression" dxfId="100" priority="1">
-      <formula>AND(Q31="TRUE",U31="TRUE",(OR(W31="TRUE",Y31="TRUE")),AC31="TRUE",AI31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31598,7 +31124,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549CB97E-C943-4CCC-9544-07840BB3F0B3}">
-  <dimension ref="A4:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31613,13 +31139,18 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="78"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="78"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C6" s="79" t="s">
         <v>268</v>
       </c>
@@ -31633,7 +31164,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>272</v>
       </c>
@@ -31641,7 +31172,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="132" t="s">
         <v>99</v>
       </c>
@@ -31660,7 +31191,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="133"/>
       <c r="C9" s="109"/>
       <c r="D9" s="131"/>
@@ -31672,7 +31203,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>273</v>
       </c>
@@ -31680,7 +31211,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="123" t="s">
         <v>103</v>
       </c>
@@ -31699,7 +31230,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="119"/>
       <c r="C12" s="133"/>
       <c r="D12" s="131"/>
@@ -31711,7 +31242,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="123" t="s">
         <v>104</v>
       </c>
@@ -31730,7 +31261,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="119"/>
       <c r="C14" s="133"/>
       <c r="D14" s="131"/>
@@ -31742,7 +31273,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="123" t="s">
         <v>105</v>
       </c>
@@ -31761,7 +31292,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="119"/>
       <c r="C16" s="133"/>
       <c r="D16" s="131"/>
@@ -32222,253 +31753,253 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B8:D9">
-    <cfRule type="expression" dxfId="99" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>$D$8="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B11:D12">
+    <cfRule type="expression" dxfId="48" priority="58">
+      <formula>$D$11="Satisfied"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13:D14">
-    <cfRule type="expression" dxfId="98" priority="59">
+    <cfRule type="expression" dxfId="47" priority="59">
       <formula>$D$13="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D12">
-    <cfRule type="expression" dxfId="97" priority="58">
-      <formula>$D$11="Satisfied"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B15:D16">
-    <cfRule type="expression" dxfId="96" priority="56">
+    <cfRule type="expression" dxfId="46" priority="56">
       <formula>$D$15="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D18">
-    <cfRule type="expression" dxfId="95" priority="55">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>$D$17="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B21:D21">
+    <cfRule type="expression" dxfId="44" priority="4">
+      <formula>$D$21="Satisfied"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B23:D23">
-    <cfRule type="expression" dxfId="94" priority="53">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>$D$23="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D26">
-    <cfRule type="expression" dxfId="93" priority="52">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>$D$26="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27">
-    <cfRule type="expression" dxfId="92" priority="51">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>$D$27="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:D28">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>$D$28="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="39" priority="49">
       <formula>$D$29="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30">
-    <cfRule type="expression" dxfId="90" priority="48">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>$D$30="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31">
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>$D$31="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="88" priority="46">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>$D$32="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D35">
-    <cfRule type="expression" dxfId="87" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$D$35="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:D38">
-    <cfRule type="expression" dxfId="86" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>$D$38="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:D39">
-    <cfRule type="expression" dxfId="85" priority="42">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>$D$39="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:D40">
-    <cfRule type="expression" dxfId="84" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>$D$40="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:D43">
-    <cfRule type="expression" dxfId="83" priority="40">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>$D$43="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:D44">
-    <cfRule type="expression" dxfId="82" priority="39">
+    <cfRule type="expression" dxfId="30" priority="39">
       <formula>$D$44="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:D45">
-    <cfRule type="expression" dxfId="81" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>$D$45="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="80" priority="37">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>$D$48="Satisfied"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="79" priority="36">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>$F$8="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F9">
-    <cfRule type="expression" dxfId="78" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>$F$9="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="77" priority="34">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>$F$11="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="expression" dxfId="76" priority="33">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>$F$12="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="75" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>$F$13="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="74" priority="31">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>$F$14="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="73" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>$F$15="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="72" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>$F$16="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="expression" dxfId="71" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>$F$17="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="70" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>$F$18="YES"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$F$21="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="expression" dxfId="69" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$F$22="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="68" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>$F$23="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:F26">
-    <cfRule type="expression" dxfId="67" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$F$26="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="expression" dxfId="66" priority="23">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>$F$27="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="expression" dxfId="65" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>$F$28="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="64" priority="21">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>$F$29="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="63" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$F$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="expression" dxfId="62" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>$F$31="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32">
-    <cfRule type="expression" dxfId="61" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$F$32="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="expression" dxfId="60" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$F$35="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="59" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>$F$38="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:F39">
-    <cfRule type="expression" dxfId="58" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$F$39="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="57" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$F$40="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$F$43="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F44">
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$F$44="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:F45">
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>$F$45="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="expression" dxfId="53" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F$48="YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="52" priority="4">
-      <formula>$D$21="Satisfied"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="51" priority="3">
-      <formula>$F$21="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32510,6 +32041,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>317</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -33379,6 +32913,9 @@
       <c r="D1" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="str">
@@ -34044,6 +33581,9 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>340</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -34882,6 +34422,9 @@
       <c r="B1" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="str">
@@ -35332,12 +34875,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AAF6AF0C7CE7549A5D17CD937362787" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f5cd2b5f7d3f6ddbce5e585ec9eab84e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74" xmlns:ns3="6eb0dd79-bb85-4255-8a9f-502eb203acbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a25ac27321eaa39cc65e1fa75f305940" ns2:_="" ns3:_="">
     <xsd:import namespace="dd0e0625-2e83-4ad5-b9cb-f9d91ab6ed74"/>
@@ -35554,16 +35106,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -35572,7 +35123,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{781D8A5B-1BCE-4AD2-86B6-C000ADF5C228}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35589,12 +35140,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>